--- a/SRS/SRS Documento/SRS[Alimnova]DescripcionReqNoFuncionalesV1.1.1.xlsx
+++ b/SRS/SRS Documento/SRS[Alimnova]DescripcionReqNoFuncionalesV1.1.1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="-48" yWindow="-108" windowWidth="15408" windowHeight="3420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -616,17 +616,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -634,6 +674,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,20 +695,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,9 +713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,48 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1018,35 +1018,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="10" max="10" width="0.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1056,24 +1056,24 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="3"/>
@@ -1082,24 +1082,24 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="19" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="3"/>
@@ -1108,24 +1108,24 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="19" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="3"/>
@@ -1134,24 +1134,24 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="21" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="3"/>
@@ -1160,24 +1160,24 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="19" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="3"/>
@@ -1187,24 +1187,24 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="19" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L7" s="3"/>
@@ -1214,24 +1214,24 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="19" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="3"/>
@@ -1241,24 +1241,24 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="19" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="3"/>
@@ -1268,24 +1268,24 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="19" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L10" s="3"/>
@@ -1295,24 +1295,24 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="19" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="3"/>
@@ -1322,24 +1322,24 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="19" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="10" t="s">
         <v>37</v>
       </c>
       <c r="L12" s="3"/>
@@ -1349,24 +1349,24 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="19" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="3"/>
@@ -1376,24 +1376,24 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="19" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1401,24 +1401,24 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="19" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1426,24 +1426,24 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="19" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21" t="s">
+      <c r="I16" s="12"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L16" s="3"/>
@@ -1452,24 +1452,24 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="19" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21" t="s">
+      <c r="I17" s="12"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L17" s="3"/>
@@ -1478,24 +1478,24 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="19" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="3"/>
@@ -1504,24 +1504,24 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="19" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21" t="s">
+      <c r="I19" s="12"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="10" t="s">
         <v>37</v>
       </c>
       <c r="L19" s="7"/>
@@ -1530,24 +1530,24 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="19" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7"/>
@@ -1556,24 +1556,24 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="19" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="10" t="s">
         <v>37</v>
       </c>
       <c r="L21" s="7"/>
@@ -1582,24 +1582,24 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="19" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="10" t="s">
         <v>37</v>
       </c>
       <c r="L22" s="7"/>
@@ -1608,24 +1608,24 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="19" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L23" s="7"/>
@@ -1634,24 +1634,24 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="19" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21" t="s">
+      <c r="I24" s="12"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L24" s="7"/>
@@ -1660,24 +1660,24 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="19" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21" t="s">
+      <c r="I25" s="12"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L25" s="7"/>
@@ -1686,24 +1686,24 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="19" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21" t="s">
+      <c r="I26" s="12"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="7"/>
@@ -1712,24 +1712,24 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="37" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="21" t="s">
+      <c r="I27" s="25"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L27" s="7"/>
@@ -1738,24 +1738,24 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="37" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="21" t="s">
+      <c r="I28" s="25"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L28" s="7"/>
@@ -1764,24 +1764,24 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="21" t="s">
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L29" s="7"/>
@@ -1790,24 +1790,24 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="21" t="s">
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L30" s="7"/>
@@ -1816,24 +1816,24 @@
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="21" t="s">
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L31" s="7"/>
@@ -1842,24 +1842,24 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="21" t="s">
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L32" s="7"/>
@@ -1868,24 +1868,24 @@
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="21" t="s">
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L33" s="7"/>
@@ -1894,24 +1894,24 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="19" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="40" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L34" s="9"/>
@@ -1920,24 +1920,24 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A35" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="40" t="s">
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L35" s="9"/>
@@ -1946,24 +1946,24 @@
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A36" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="40" t="s">
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L36" s="9"/>
@@ -1972,24 +1972,24 @@
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A37" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="19" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="40" t="s">
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L37" s="9"/>
@@ -1998,24 +1998,24 @@
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:16" ht="15.6" thickTop="1" thickBot="1">
       <c r="A38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="19" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="40" t="s">
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="11" t="s">
         <v>37</v>
       </c>
       <c r="L38" s="9"/>
@@ -2067,10 +2067,10 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
       <c r="K41" s="1"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -2263,6 +2263,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="B38:G38"/>
@@ -2279,67 +2340,6 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H27:J27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2352,7 +2352,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2364,7 +2364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SRS/SRS Documento/SRS[Alimnova]DescripcionReqNoFuncionalesV1.1.1.xlsx
+++ b/SRS/SRS Documento/SRS[Alimnova]DescripcionReqNoFuncionalesV1.1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-108" windowWidth="15408" windowHeight="3420"/>
+    <workbookView xWindow="-48" yWindow="-108" windowWidth="15408" windowHeight="3240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,91 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,95 +716,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1034,19 +1034,19 @@
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="32"/>
       <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
@@ -1060,19 +1060,19 @@
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="12" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="24"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="10" t="s">
         <v>31</v>
       </c>
@@ -1086,19 +1086,19 @@
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="12" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="24"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="10" t="s">
         <v>31</v>
       </c>
@@ -1112,19 +1112,19 @@
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="12" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="24"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
@@ -1138,19 +1138,19 @@
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="24" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="10" t="s">
         <v>31</v>
       </c>
@@ -1164,19 +1164,19 @@
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="12" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="24"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="10" t="s">
         <v>35</v>
       </c>
@@ -1191,19 +1191,19 @@
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="12" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="10" t="s">
         <v>35</v>
       </c>
@@ -1218,19 +1218,19 @@
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="12" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="10" t="s">
         <v>35</v>
       </c>
@@ -1245,19 +1245,19 @@
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="12" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="10" t="s">
         <v>35</v>
       </c>
@@ -1272,19 +1272,19 @@
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="12" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="24"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="10" t="s">
         <v>35</v>
       </c>
@@ -1299,19 +1299,19 @@
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="12" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="24"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="10" t="s">
         <v>37</v>
       </c>
@@ -1326,19 +1326,19 @@
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="12" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="10" t="s">
         <v>37</v>
       </c>
@@ -1353,19 +1353,19 @@
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="12" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="24"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="10" t="s">
         <v>35</v>
       </c>
@@ -1380,19 +1380,19 @@
       <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="12" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="10"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1405,19 +1405,19 @@
       <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="12" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="24"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="10"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1430,19 +1430,19 @@
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="12" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="24"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="10" t="s">
         <v>35</v>
       </c>
@@ -1456,19 +1456,19 @@
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="12" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="24"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1482,19 +1482,19 @@
       <c r="A18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="12" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="24"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="10" t="s">
         <v>31</v>
       </c>
@@ -1508,19 +1508,19 @@
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="12" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="24"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="10" t="s">
         <v>37</v>
       </c>
@@ -1534,19 +1534,19 @@
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="12" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="24"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="10" t="s">
         <v>32</v>
       </c>
@@ -1560,19 +1560,19 @@
       <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="12" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="10" t="s">
         <v>37</v>
       </c>
@@ -1586,19 +1586,19 @@
       <c r="A22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="12" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="24"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="10" t="s">
         <v>37</v>
       </c>
@@ -1612,19 +1612,19 @@
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="12" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="24"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="10" t="s">
         <v>35</v>
       </c>
@@ -1638,19 +1638,19 @@
       <c r="A24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="12" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="24"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="10" t="s">
         <v>35</v>
       </c>
@@ -1664,19 +1664,19 @@
       <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="12" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
       <c r="K25" s="10" t="s">
         <v>35</v>
       </c>
@@ -1690,19 +1690,19 @@
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="12" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="24"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="10" t="s">
         <v>35</v>
       </c>
@@ -1716,19 +1716,19 @@
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="25" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="16"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="10" t="s">
         <v>32</v>
       </c>
@@ -1742,19 +1742,19 @@
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="25" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="16"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="10" t="s">
         <v>32</v>
       </c>
@@ -1768,19 +1768,19 @@
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="16" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="10" t="s">
         <v>35</v>
       </c>
@@ -1794,19 +1794,19 @@
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="16" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="10" t="s">
         <v>35</v>
       </c>
@@ -1820,19 +1820,19 @@
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="16" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="10" t="s">
         <v>35</v>
       </c>
@@ -1846,19 +1846,19 @@
       <c r="A32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="16" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1872,19 +1872,19 @@
       <c r="A33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="16" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="10" t="s">
         <v>35</v>
       </c>
@@ -1898,19 +1898,19 @@
       <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="12" t="s">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="11" t="s">
         <v>37</v>
       </c>
@@ -1924,19 +1924,19 @@
       <c r="A35" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="11" t="s">
         <v>37</v>
       </c>
@@ -1950,19 +1950,19 @@
       <c r="A36" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="11" t="s">
         <v>37</v>
       </c>
@@ -1976,19 +1976,19 @@
       <c r="A37" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="12" t="s">
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="11" t="s">
         <v>37</v>
       </c>
@@ -2002,19 +2002,19 @@
       <c r="A38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="12" t="s">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="11" t="s">
         <v>37</v>
       </c>
@@ -2067,10 +2067,10 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="1"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -2263,6 +2263,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H9:J9"/>
@@ -2279,67 +2340,6 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
